--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10443" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40422" uniqueCount="845">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40422" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61757" uniqueCount="845">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31021,7 +31021,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>89</v>
@@ -31054,7 +31054,7 @@
         <v>89</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>89</v>
@@ -31066,7 +31066,7 @@
         <v>89</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>89</v>
@@ -31096,10 +31096,10 @@
         <v>89</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>89</v>
@@ -31108,7 +31108,7 @@
         <v>89</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>89</v>
@@ -31117,7 +31117,7 @@
         <v>89</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>89</v>
@@ -32056,70 +32056,70 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>89</v>
@@ -32131,28 +32131,28 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
@@ -32161,10 +32161,10 @@
         <v>89</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15">
@@ -32211,7 +32211,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>89</v>
@@ -32687,7 +32687,7 @@
         <v>89</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>89</v>
@@ -32990,7 +32990,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>89</v>
@@ -33044,7 +33044,7 @@
         <v>89</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>89</v>
@@ -33059,7 +33059,7 @@
         <v>89</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>89</v>
@@ -33074,7 +33074,7 @@
         <v>89</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>89</v>
@@ -33089,7 +33089,7 @@
         <v>89</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>89</v>
@@ -33401,7 +33401,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33428,7 +33428,7 @@
         <v>89</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33437,10 +33437,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26">
@@ -33454,7 +33454,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>89</v>
@@ -33520,10 +33520,10 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>89</v>
@@ -33538,7 +33538,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33680,10 +33680,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
@@ -33692,28 +33692,28 @@
         <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
@@ -33722,31 +33722,31 @@
         <v>89</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33758,28 +33758,28 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>89</v>
@@ -34698,7 +34698,7 @@
         <v>89</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>89</v>
@@ -34710,7 +34710,7 @@
         <v>89</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>89</v>
@@ -34956,115 +34956,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="40">
@@ -35072,115 +35072,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
@@ -35188,115 +35188,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>117</v>
+        <v>393</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>117</v>
+        <v>488</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>117</v>
+        <v>520</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>117</v>
+        <v>546</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>117</v>
+        <v>570</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>117</v>
+        <v>591</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>117</v>
+        <v>623</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>117</v>
+        <v>657</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>117</v>
+        <v>691</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>117</v>
+        <v>723</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>117</v>
+        <v>752</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>117</v>
+        <v>781</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>117</v>
+        <v>800</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>117</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42">
